--- a/数据整理/stocks/A股/深证主板/002245-蔚蓝锂芯.xlsx
+++ b/数据整理/stocks/A股/深证主板/002245-蔚蓝锂芯.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.44</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.57</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>163818</t>
+          <t>002145</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银中小盘成长混合</t>
+          <t>诺安景鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.82</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002145</t>
+          <t>163818</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安景鑫灵活配置混合</t>
+          <t>中银中小盘成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>290008</t>
+          <t>006430</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰信发展主题混合</t>
+          <t>凯石澜龙头经济定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>85.30</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2123</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006430</t>
+          <t>001569</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>凯石澜龙头经济定期开放混合</t>
+          <t>泰信国策驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>73.74</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -678,25 +748,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001569</t>
+          <t>290008</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰信国策驱动灵活配置混合</t>
+          <t>泰信发展主题混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>75.77</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>86.01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.71</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002245-蔚蓝锂芯.xlsx
+++ b/数据整理/stocks/A股/深证主板/002245-蔚蓝锂芯.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0598</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0000</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8215</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7345</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6605</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4635</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3741</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001490</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富国企创新增长股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3138</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2952</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002245-蔚蓝锂芯.xlsx
+++ b/数据整理/stocks/A股/深证主板/002245-蔚蓝锂芯.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1638,4 +1639,1156 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7274</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6308</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3147</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1798</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8131</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6902</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6199</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4604</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4259</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4049</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4049</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2771</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2697</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>210007</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002196</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰技术领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002245-蔚蓝锂芯.xlsx
+++ b/数据整理/stocks/A股/深证主板/002245-蔚蓝锂芯.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2770,7 +2771,6 @@
           <t>东方红启阳三年持有期混合B</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>79.89</t>
@@ -2786,6 +2786,106 @@
       </c>
       <c r="H30" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002245-蔚蓝锂芯.xlsx
+++ b/数据整理/stocks/A股/深证主板/002245-蔚蓝锂芯.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2799,7 +2800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2810,17 +2811,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2830,14 +2851,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.83</v>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>155.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2388</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2846,14 +2889,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.77</v>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0244</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2862,14 +2927,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3</v>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7984</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2878,13 +2965,3113 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>62.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5171</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4743</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011037</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国长期成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>55.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2640</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>50.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1767</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5490</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>61.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4947</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3977</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1793</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1506</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0961</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0073</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8901</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7915</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7281</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6807</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6805</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6743</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6687</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6666</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6544</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5953</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5599</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5196</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>070013</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5119</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>72.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4557</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4352</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005765</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.51</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4229</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4183</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3832</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3782</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3519</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2592</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2464</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2129</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1920</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1711</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>53.43</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001811</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中欧明睿新常态混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004737</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>53.43</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003004</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商睿祥定期开放混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>45.36</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004747</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>29.83</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>960025</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实研究精选混合H</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>82</v>
+      </c>
+      <c r="D2" t="n">
+        <v>46.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002245-蔚蓝锂芯.xlsx
+++ b/数据整理/stocks/A股/深证主板/002245-蔚蓝锂芯.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5970,7 +5971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5981,17 +5982,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6001,14 +6022,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>82</v>
-      </c>
-      <c r="D2" t="n">
-        <v>46.97</v>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2775</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -6017,14 +6060,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.83</v>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>130.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5141</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6033,14 +6098,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.77</v>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>175.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5400</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6049,14 +6136,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3</v>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4809</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -6065,13 +6174,2751 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4579</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5586</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2484</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0256</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9702</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9367</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8306</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8286</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7686</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7012</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6990</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6632</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>35.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5995</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>59.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5897</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5679</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4664</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4656</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4605</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>61.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4403</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2883</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2804</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2765</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2603</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2344</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1738</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014299</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>61.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>62.02</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>40.35</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014300</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰达宏利先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>61.03</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>40.35</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>73</v>
+      </c>
+      <c r="D2" t="n">
+        <v>37.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>46.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002245-蔚蓝锂芯.xlsx
+++ b/数据整理/stocks/A股/深证主板/002245-蔚蓝锂芯.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8801,7 +8802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8812,17 +8813,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8832,14 +8853,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>73</v>
-      </c>
-      <c r="D2" t="n">
-        <v>37.61</v>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4407</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -8848,14 +8891,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>82</v>
-      </c>
-      <c r="D3" t="n">
-        <v>46.97</v>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1464</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -8864,14 +8929,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.83</v>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1144</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -8880,14 +8967,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.77</v>
+          <t>001222</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华外延成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9942</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -8896,14 +9005,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3</v>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5756</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -8912,13 +9043,2539 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5737</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5217</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5043</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4993</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011542</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华远见回报三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4560</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3848</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2911</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2870</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2746</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>63.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2416</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2334</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501064</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2334</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2076</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012126</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012127</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利新能源股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004657</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>72.52</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004658</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015004</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>72.52</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012799</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>015005</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中邮能源革新混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>68</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>82</v>
+      </c>
+      <c r="D4" t="n">
+        <v>46.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002245-蔚蓝锂芯.xlsx
+++ b/数据整理/stocks/A股/深证主板/002245-蔚蓝锂芯.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>17.18</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
-        <v>37.61</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D4" t="n">
-        <v>46.97</v>
+        <v>37.61</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="D5" t="n">
-        <v>12.83</v>
+        <v>46.97</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>6.77</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -600,6 +617,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160611</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华优质治理混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>59.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014831</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014832</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3239,7 +3426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6069,7 +6256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9239,7 +9426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10390,7 +10577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11206,7 +11393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11414,7 +11601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002245-蔚蓝锂芯.xlsx
+++ b/数据整理/stocks/A股/深证主板/002245-蔚蓝锂芯.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>17.18</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D4" t="n">
-        <v>37.61</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D5" t="n">
-        <v>46.97</v>
+        <v>37.61</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="D6" t="n">
-        <v>12.83</v>
+        <v>46.97</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>6.77</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -616,7 +633,423 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2124</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>016067</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7292</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>016068</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516530</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -786,7 +1219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3426,7 +3859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6256,7 +6689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9426,7 +9859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10577,7 +11010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11393,7 +11826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11599,174 +12032,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>168207</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中融创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.44</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1392</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002145</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安景鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0349</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>163818</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中银中小盘成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0214</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>